--- a/statistics/SPSS/roiObjectLvl_Within-PLI_delta/roiObjectLvl_Within-PLI_delta.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_delta/roiObjectLvl_Within-PLI_delta.xlsx
@@ -82,8 +82,8 @@
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
     <col min="6" max="6" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.038262191115452093</v>
+        <v>0.035073675189164377</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.083235327108844903</v>
+        <v>-0.076299049849774481</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.019728559535506063</v>
+        <v>-0.018084512907547201</v>
       </c>
       <c r="D2" s="0">
-        <v>0.01480644958905819</v>
+        <v>0.013572578789970036</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.012119447581404208</v>
+        <v>-0.011109493616287103</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0042371778473541677</v>
+        <v>0.0038840796934079824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0038028459810217075</v>
+        <v>0.0034859421492698939</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.051692033862293207</v>
+        <v>-0.04738436437376875</v>
       </c>
       <c r="C3" s="0">
-        <v>0.060353680339065907</v>
+        <v>0.055324206977477031</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.042445832087775914</v>
+        <v>-0.038908679413794445</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.022958854160900266</v>
+        <v>-0.021045616314158411</v>
       </c>
       <c r="F3" s="0">
-        <v>0.012010097708038348</v>
+        <v>0.011009256232368314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0078887802672968355</v>
+        <v>0.0072313819116887612</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.006545230948630798</v>
+        <v>-0.0059997950362447594</v>
       </c>
       <c r="C4" s="0">
-        <v>0.015972247093528569</v>
+        <v>0.014641226502401239</v>
       </c>
       <c r="D4" s="0">
-        <v>0.030103015610261852</v>
+        <v>0.027594430976073503</v>
       </c>
       <c r="E4" s="0">
-        <v>0.002684256021403264</v>
+        <v>0.0024605680196196356</v>
       </c>
       <c r="F4" s="0">
-        <v>0.04279410801149941</v>
+        <v>0.03922793234387445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.015491687541376975</v>
+        <v>0.014200713579595514</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.033543050176778721</v>
+        <v>-0.030747795995380522</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0059667789173780128</v>
+        <v>0.0054695473409296924</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.027241167557373047</v>
+        <v>-0.024971070260925432</v>
       </c>
       <c r="E5" s="0">
-        <v>0.023809466144824432</v>
+        <v>0.021825343966088984</v>
       </c>
       <c r="F5" s="0">
-        <v>0.021764572799215898</v>
+        <v>0.019950858399281179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0046025698199611553</v>
+        <v>-0.0042190223349641842</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0093784693480812864</v>
+        <v>0.008596930235741318</v>
       </c>
       <c r="C6" s="0">
-        <v>0.016711276677397413</v>
+        <v>0.015318670287614355</v>
       </c>
       <c r="D6" s="0">
-        <v>0.042503035469787454</v>
+        <v>0.038961115847305106</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0086049346918912195</v>
+        <v>0.0078878568009002614</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.034160501551805944</v>
+        <v>-0.03131379308915555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0059597988005964941</v>
+        <v>-0.0054631489005467215</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0057928629191126291</v>
+        <v>0.005310124342519984</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.023343938363701189</v>
+        <v>-0.021398610166726117</v>
       </c>
       <c r="D7" s="0">
-        <v>0.017549944879137358</v>
+        <v>0.016087449472542426</v>
       </c>
       <c r="E7" s="0">
-        <v>0.036655401620463768</v>
+        <v>0.033600784818758445</v>
       </c>
       <c r="F7" s="0">
-        <v>0.031635316987283724</v>
+        <v>0.028999040571676793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.051746917475817722</v>
+        <v>0.047434674352832884</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.015096953502750698</v>
+        <v>-0.013838874044188043</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.008971953588930881</v>
+        <v>-0.0082242907898533169</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.016953189054638496</v>
+        <v>-0.015540423300085093</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.016182690716852188</v>
+        <v>-0.01483413315711446</v>
       </c>
       <c r="F8" s="0">
-        <v>0.044381117071334519</v>
+        <v>0.040682690648723319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.030113357126697105</v>
+        <v>-0.027603910699472323</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0067145970972858904</v>
+        <v>-0.0061550473391787652</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.04046180295889662</v>
+        <v>-0.037089986045655221</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0019981935095806369</v>
+        <v>0.0018316773837822042</v>
       </c>
       <c r="E9" s="0">
-        <v>0.011446240172117983</v>
+        <v>0.010492386824441369</v>
       </c>
       <c r="F9" s="0">
-        <v>0.064708965357325454</v>
+        <v>0.059316551577548227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0077684038042094006</v>
+        <v>0.0071210368205252284</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0022619130170618007</v>
+        <v>0.002073420265639947</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.0075155497515745906</v>
+        <v>-0.0068892539389433516</v>
       </c>
       <c r="D10" s="0">
-        <v>0.019447278252539391</v>
+        <v>0.017826671731494492</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0055815508714060491</v>
+        <v>-0.0051164216321221145</v>
       </c>
       <c r="F10" s="0">
-        <v>0.012599954342738473</v>
+        <v>0.011549958147510198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0031180172484519542</v>
+        <v>-0.0028581824777476617</v>
       </c>
       <c r="B11" s="0">
-        <v>0.022142807611915116</v>
+        <v>0.020297573644255495</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.011873816221642242</v>
+        <v>-0.010884331536505476</v>
       </c>
       <c r="D11" s="0">
-        <v>0.049112558351688762</v>
+        <v>0.045019845155714666</v>
       </c>
       <c r="E11" s="0">
-        <v>0.015846351715917029</v>
+        <v>0.014525822406257272</v>
       </c>
       <c r="F11" s="0">
-        <v>0.050401088444566589</v>
+        <v>0.046200997740852845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.059479718518620162</v>
+        <v>-0.054523075308735069</v>
       </c>
       <c r="B12" s="0">
-        <v>0.018354591113068197</v>
+        <v>0.016825041853645917</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.021911433091557408</v>
+        <v>-0.020085480333927486</v>
       </c>
       <c r="D12" s="0">
-        <v>0.097500385633762676</v>
+        <v>0.089375353497615606</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0010449027507484221</v>
+        <v>-0.0009578275215192944</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0076622250535293146</v>
+        <v>0.0070237062990685661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.010749103426449025</v>
+        <v>-0.0098533448075782126</v>
       </c>
       <c r="B13" s="0">
-        <v>0.018617876770050779</v>
+        <v>0.017066387039213204</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.0013501309267900385</v>
+        <v>-0.0012376200162242945</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.031835435096304709</v>
+        <v>-0.029182482171612678</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.010089280016816304</v>
+        <v>-0.0092485066820815476</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.04880296413477192</v>
+        <v>-0.044736050456874288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.023521620623069783</v>
+        <v>-0.021561485571147454</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0091067681647392096</v>
+        <v>-0.0083478708176776273</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.019183586264331531</v>
+        <v>-0.01758495407563726</v>
       </c>
       <c r="D14" s="0">
-        <v>0.038341801129525011</v>
+        <v>0.035146651035397936</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.022219000479870021</v>
+        <v>-0.020367417106547603</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.010589456900392424</v>
+        <v>-0.0097070021586929678</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.030458131248644937</v>
+        <v>-0.027919953644591267</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.012526642961425638</v>
+        <v>-0.011482756047973441</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.019551348727550211</v>
+        <v>-0.017922069666920948</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.019180009454609015</v>
+        <v>-0.017581675333391611</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.013243533529513629</v>
+        <v>-0.012139905735387369</v>
       </c>
       <c r="F15" s="0">
-        <v>0.01251472245261076</v>
+        <v>0.011471828914893012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.052729795483418773</v>
+        <v>-0.048335645859800491</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0024604908186144359</v>
+        <v>-0.0022554499170632791</v>
       </c>
       <c r="C16" s="0">
-        <v>0.010180010180010246</v>
+        <v>0.0093316759983427255</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.036812221594830163</v>
+        <v>-0.033744536461927765</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.051420626519440849</v>
+        <v>-0.047135574309487394</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.015073911280219898</v>
+        <v>-0.013817752006868356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.085029034304396567</v>
+        <v>0.077943281445696955</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.017610066008235448</v>
+        <v>-0.016142560507549086</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.028736246127550436</v>
+        <v>-0.026341558950254584</v>
       </c>
       <c r="D17" s="0">
-        <v>0.02274091404526174</v>
+        <v>0.020845837874823359</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.012251099207620963</v>
+        <v>-0.011230174273652582</v>
       </c>
       <c r="F17" s="0">
-        <v>0.033952689749791098</v>
+        <v>0.031123298937308641</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.053851874599395555</v>
+        <v>-0.049364218382779212</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.029086715471154989</v>
+        <v>-0.026662822515225282</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.0047813518614880923</v>
+        <v>-0.0043829058730308068</v>
       </c>
       <c r="D18" s="0">
-        <v>0.061577445848545576</v>
+        <v>0.056445992027833458</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.014176966350879394</v>
+        <v>-0.01299555248830625</v>
       </c>
       <c r="F18" s="0">
-        <v>0.020983695776656264</v>
+        <v>0.019235054461935019</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.016551022399883708</v>
+        <v>0.015171770533226658</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0047699214365882203</v>
+        <v>-0.0043724279835392066</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.010472829313409038</v>
+        <v>-0.0096000935372915763</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0020060517099148578</v>
+        <v>-0.0018388807340886659</v>
       </c>
       <c r="E19" s="0">
-        <v>0.014640367266002652</v>
+        <v>0.013420336660502297</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.015373126172565144</v>
+        <v>-0.0140920323248514</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.025473261498106137</v>
+        <v>0.023350489706597366</v>
       </c>
       <c r="B20" s="0">
-        <v>0.02889724400021898</v>
+        <v>0.026489140333533945</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.0014484307962568388</v>
+        <v>-0.0013277282299019588</v>
       </c>
       <c r="D20" s="0">
-        <v>0.059861399375465862</v>
+        <v>0.054872949427510309</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0035769383595471438</v>
+        <v>-0.0032788601629180625</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0085860958349082139</v>
+        <v>-0.0078705878486660108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.057266209440122451</v>
+        <v>0.05249402532011227</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.035544864492233041</v>
+        <v>-0.032582792451213538</v>
       </c>
       <c r="C21" s="0">
-        <v>0.11482870178522342</v>
+        <v>0.10525964330312165</v>
       </c>
       <c r="D21" s="0">
-        <v>0.064348779451754268</v>
+        <v>0.058986381164108037</v>
       </c>
       <c r="E21" s="0">
-        <v>0.026326768832489633</v>
+        <v>0.02413287142978221</v>
       </c>
       <c r="F21" s="0">
-        <v>0.045002305871871096</v>
+        <v>0.041252113715881777</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.046369600078039863</v>
+        <v>0.042505466738203157</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.010110159566681431</v>
+        <v>-0.0092676462694579742</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.011204946605144261</v>
+        <v>-0.010271201054715628</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.019669174097764974</v>
+        <v>-0.018030076256284444</v>
       </c>
       <c r="E22" s="0">
-        <v>0.026717037276043354</v>
+        <v>0.02449061750303988</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.0065842239755283805</v>
+        <v>-0.006035538644234284</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.001787336932264294</v>
+        <v>-0.0016383921879090102</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.00054566141522671696</v>
+        <v>-0.00050018963062453681</v>
       </c>
       <c r="C23" s="0">
-        <v>0.0071860026093435447</v>
+        <v>0.0065871690585649345</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.0023507632203285111</v>
+        <v>-0.0021548662853010936</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.028254524249947566</v>
+        <v>-0.025899980562451907</v>
       </c>
       <c r="F23" s="0">
-        <v>0.013984842949037513</v>
+        <v>0.012819439369950891</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0057864188298971109</v>
+        <v>-0.0053042172607389859</v>
       </c>
       <c r="B24" s="0">
-        <v>0.020014031932414855</v>
+        <v>0.018346195938047039</v>
       </c>
       <c r="C24" s="0">
-        <v>0.0041826128782651018</v>
+        <v>0.0038340618050761166</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0056630376996510412</v>
+        <v>0.0051911178913467415</v>
       </c>
       <c r="E24" s="0">
-        <v>0.063129344593875647</v>
+        <v>0.057868565877719214</v>
       </c>
       <c r="F24" s="0">
-        <v>0.030090216589072349</v>
+        <v>0.027582698539983075</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.01755811575901528</v>
+        <v>0.016094939445764012</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0038075907641126339</v>
+        <v>0.0034902915337697293</v>
       </c>
       <c r="C25" s="0">
-        <v>0.066826207142412719</v>
+        <v>0.06125735654721165</v>
       </c>
       <c r="D25" s="0">
-        <v>0.019392345479302076</v>
+        <v>0.01777631668936025</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.005308197459524322</v>
+        <v>-0.0048658476712306054</v>
       </c>
       <c r="F25" s="0">
-        <v>0.0017059072765595595</v>
+        <v>0.001563748336846138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0040763965249090983</v>
+        <v>-0.0037366968145002288</v>
       </c>
       <c r="B26" s="0">
-        <v>0.033860221437861215</v>
+        <v>0.031038536318039378</v>
       </c>
       <c r="C26" s="0">
-        <v>0.012560643692938578</v>
+        <v>0.011513923385193581</v>
       </c>
       <c r="D26" s="0">
-        <v>0.019272583868857163</v>
+        <v>0.017666535213119061</v>
       </c>
       <c r="E26" s="0">
-        <v>0.017566571914397922</v>
+        <v>0.016102690921531493</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.024775984174961074</v>
+        <v>-0.022711318827047855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.031834510095379687</v>
+        <v>0.029181634254097921</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0017712815195653486</v>
+        <v>0.0016236747262681761</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.016942222532284668</v>
+        <v>-0.015530370654594283</v>
       </c>
       <c r="D27" s="0">
-        <v>0.00075371814502239731</v>
+        <v>0.00069090829960394284</v>
       </c>
       <c r="E27" s="0">
-        <v>0.022228174402087408</v>
+        <v>0.020375826535246833</v>
       </c>
       <c r="F27" s="0">
-        <v>0.035619753011057409</v>
+        <v>0.032651440260135889</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0083067936587605251</v>
+        <v>0.0076145608538638054</v>
       </c>
       <c r="B28" s="0">
-        <v>0.016467889539418468</v>
+        <v>0.015095565411133605</v>
       </c>
       <c r="C28" s="0">
-        <v>0.036009729850309646</v>
+        <v>0.033008919029450523</v>
       </c>
       <c r="D28" s="0">
-        <v>0.021100871178510949</v>
+        <v>0.019342465246968366</v>
       </c>
       <c r="E28" s="0">
-        <v>0.001061853616451891</v>
+        <v>0.00097336581508078446</v>
       </c>
       <c r="F28" s="0">
-        <v>0.012655786952462167</v>
+        <v>0.011601138039756875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.035873610244319565</v>
+        <v>0.032884142723959675</v>
       </c>
       <c r="B29" s="0">
-        <v>0.024141763272198136</v>
+        <v>0.022129949666181647</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.0085277965712748927</v>
+        <v>-0.0078171468570019664</v>
       </c>
       <c r="D29" s="0">
-        <v>0.016538964243904331</v>
+        <v>0.015160717223578868</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.014511866064661039</v>
+        <v>-0.013302543892605878</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0017863713515887669</v>
+        <v>-0.0016375070722897123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.010392365827148475</v>
+        <v>0.0095263353415526164</v>
       </c>
       <c r="B30" s="0">
-        <v>0.028314515814515884</v>
+        <v>0.025954972829972722</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.046819947182265897</v>
+        <v>-0.042918284917077054</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.037625457190674727</v>
+        <v>-0.034490002424785005</v>
       </c>
       <c r="E30" s="0">
-        <v>0.044546395633352109</v>
+        <v>0.040834195997239475</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.023657115762378889</v>
+        <v>-0.021685689448847356</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiObjectLvl_Within-PLI_delta/roiObjectLvl_Within-PLI_delta.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_delta/roiObjectLvl_Within-PLI_delta.xlsx
@@ -82,8 +82,8 @@
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.42578125" customWidth="true"/>
     <col min="6" max="6" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.035073675189164377</v>
+        <v>0.038262191115452093</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.076299049849774481</v>
+        <v>-0.083235327108844903</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.018084512907547201</v>
+        <v>-0.019728559535506063</v>
       </c>
       <c r="D2" s="0">
-        <v>0.013572578789970036</v>
+        <v>0.01480644958905819</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.011109493616287103</v>
+        <v>-0.012119447581404208</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0038840796934079824</v>
+        <v>0.0042371778473541677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0034859421492698939</v>
+        <v>0.0038028459810217075</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.04738436437376875</v>
+        <v>-0.051692033862293207</v>
       </c>
       <c r="C3" s="0">
-        <v>0.055324206977477031</v>
+        <v>0.060353680339065907</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.038908679413794445</v>
+        <v>-0.042445832087775914</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.021045616314158411</v>
+        <v>-0.022958854160900266</v>
       </c>
       <c r="F3" s="0">
-        <v>0.011009256232368314</v>
+        <v>0.012010097708038348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0072313819116887612</v>
+        <v>0.0078887802672968355</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0059997950362447594</v>
+        <v>-0.006545230948630798</v>
       </c>
       <c r="C4" s="0">
-        <v>0.014641226502401239</v>
+        <v>0.015972247093528569</v>
       </c>
       <c r="D4" s="0">
-        <v>0.027594430976073503</v>
+        <v>0.030103015610261852</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0024605680196196356</v>
+        <v>0.002684256021403264</v>
       </c>
       <c r="F4" s="0">
-        <v>0.03922793234387445</v>
+        <v>0.04279410801149941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.014200713579595514</v>
+        <v>0.015491687541376975</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.030747795995380522</v>
+        <v>-0.033543050176778721</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0054695473409296924</v>
+        <v>0.0059667789173780128</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.024971070260925432</v>
+        <v>-0.027241167557373047</v>
       </c>
       <c r="E5" s="0">
-        <v>0.021825343966088984</v>
+        <v>0.023809466144824432</v>
       </c>
       <c r="F5" s="0">
-        <v>0.019950858399281179</v>
+        <v>0.021764572799215898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0042190223349641842</v>
+        <v>-0.0046025698199611553</v>
       </c>
       <c r="B6" s="0">
-        <v>0.008596930235741318</v>
+        <v>0.0093784693480812864</v>
       </c>
       <c r="C6" s="0">
-        <v>0.015318670287614355</v>
+        <v>0.016711276677397413</v>
       </c>
       <c r="D6" s="0">
-        <v>0.038961115847305106</v>
+        <v>0.042503035469787454</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0078878568009002614</v>
+        <v>0.0086049346918912195</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.03131379308915555</v>
+        <v>-0.034160501551805944</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0054631489005467215</v>
+        <v>-0.0059597988005964941</v>
       </c>
       <c r="B7" s="0">
-        <v>0.005310124342519984</v>
+        <v>0.0057928629191126291</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.021398610166726117</v>
+        <v>-0.023343938363701189</v>
       </c>
       <c r="D7" s="0">
-        <v>0.016087449472542426</v>
+        <v>0.017549944879137358</v>
       </c>
       <c r="E7" s="0">
-        <v>0.033600784818758445</v>
+        <v>0.036655401620463768</v>
       </c>
       <c r="F7" s="0">
-        <v>0.028999040571676793</v>
+        <v>0.031635316987283724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.047434674352832884</v>
+        <v>0.051746917475817722</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.013838874044188043</v>
+        <v>-0.015096953502750698</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0082242907898533169</v>
+        <v>-0.008971953588930881</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.015540423300085093</v>
+        <v>-0.016953189054638496</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.01483413315711446</v>
+        <v>-0.016182690716852188</v>
       </c>
       <c r="F8" s="0">
-        <v>0.040682690648723319</v>
+        <v>0.044381117071334519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.027603910699472323</v>
+        <v>-0.030113357126697105</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0061550473391787652</v>
+        <v>-0.0067145970972858904</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.037089986045655221</v>
+        <v>-0.04046180295889662</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0018316773837822042</v>
+        <v>0.0019981935095806369</v>
       </c>
       <c r="E9" s="0">
-        <v>0.010492386824441369</v>
+        <v>0.011446240172117983</v>
       </c>
       <c r="F9" s="0">
-        <v>0.059316551577548227</v>
+        <v>0.064708965357325454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0071210368205252284</v>
+        <v>0.0077684038042094006</v>
       </c>
       <c r="B10" s="0">
-        <v>0.002073420265639947</v>
+        <v>0.0022619130170618007</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.0068892539389433516</v>
+        <v>-0.0075155497515745906</v>
       </c>
       <c r="D10" s="0">
-        <v>0.017826671731494492</v>
+        <v>0.019447278252539391</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.0051164216321221145</v>
+        <v>-0.0055815508714060491</v>
       </c>
       <c r="F10" s="0">
-        <v>0.011549958147510198</v>
+        <v>0.012599954342738473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0028581824777476617</v>
+        <v>-0.0031180172484519542</v>
       </c>
       <c r="B11" s="0">
-        <v>0.020297573644255495</v>
+        <v>0.022142807611915116</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.010884331536505476</v>
+        <v>-0.011873816221642242</v>
       </c>
       <c r="D11" s="0">
-        <v>0.045019845155714666</v>
+        <v>0.049112558351688762</v>
       </c>
       <c r="E11" s="0">
-        <v>0.014525822406257272</v>
+        <v>0.015846351715917029</v>
       </c>
       <c r="F11" s="0">
-        <v>0.046200997740852845</v>
+        <v>0.050401088444566589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.054523075308735069</v>
+        <v>-0.059479718518620162</v>
       </c>
       <c r="B12" s="0">
-        <v>0.016825041853645917</v>
+        <v>0.018354591113068197</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.020085480333927486</v>
+        <v>-0.021911433091557408</v>
       </c>
       <c r="D12" s="0">
-        <v>0.089375353497615606</v>
+        <v>0.097500385633762676</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0009578275215192944</v>
+        <v>-0.0010449027507484221</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0070237062990685661</v>
+        <v>0.0076622250535293146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0098533448075782126</v>
+        <v>-0.010749103426449025</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017066387039213204</v>
+        <v>0.018617876770050779</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.0012376200162242945</v>
+        <v>-0.0013501309267900385</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.029182482171612678</v>
+        <v>-0.031835435096304709</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.0092485066820815476</v>
+        <v>-0.010089280016816304</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.044736050456874288</v>
+        <v>-0.04880296413477192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.021561485571147454</v>
+        <v>-0.023521620623069783</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0083478708176776273</v>
+        <v>-0.0091067681647392096</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.01758495407563726</v>
+        <v>-0.019183586264331531</v>
       </c>
       <c r="D14" s="0">
-        <v>0.035146651035397936</v>
+        <v>0.038341801129525011</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.020367417106547603</v>
+        <v>-0.022219000479870021</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0097070021586929678</v>
+        <v>-0.010589456900392424</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.027919953644591267</v>
+        <v>-0.030458131248644937</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.011482756047973441</v>
+        <v>-0.012526642961425638</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.017922069666920948</v>
+        <v>-0.019551348727550211</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.017581675333391611</v>
+        <v>-0.019180009454609015</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.012139905735387369</v>
+        <v>-0.013243533529513629</v>
       </c>
       <c r="F15" s="0">
-        <v>0.011471828914893012</v>
+        <v>0.01251472245261076</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.048335645859800491</v>
+        <v>-0.052729795483418773</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0022554499170632791</v>
+        <v>-0.0024604908186144359</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0093316759983427255</v>
+        <v>0.010180010180010246</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.033744536461927765</v>
+        <v>-0.036812221594830163</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.047135574309487394</v>
+        <v>-0.051420626519440849</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.013817752006868356</v>
+        <v>-0.015073911280219898</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.077943281445696955</v>
+        <v>0.085029034304396567</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.016142560507549086</v>
+        <v>-0.017610066008235448</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.026341558950254584</v>
+        <v>-0.028736246127550436</v>
       </c>
       <c r="D17" s="0">
-        <v>0.020845837874823359</v>
+        <v>0.02274091404526174</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.011230174273652582</v>
+        <v>-0.012251099207620963</v>
       </c>
       <c r="F17" s="0">
-        <v>0.031123298937308641</v>
+        <v>0.033952689749791098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.049364218382779212</v>
+        <v>-0.053851874599395555</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.026662822515225282</v>
+        <v>-0.029086715471154989</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.0043829058730308068</v>
+        <v>-0.0047813518614880923</v>
       </c>
       <c r="D18" s="0">
-        <v>0.056445992027833458</v>
+        <v>0.061577445848545576</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.01299555248830625</v>
+        <v>-0.014176966350879394</v>
       </c>
       <c r="F18" s="0">
-        <v>0.019235054461935019</v>
+        <v>0.020983695776656264</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.015171770533226658</v>
+        <v>0.016551022399883708</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0043724279835392066</v>
+        <v>-0.0047699214365882203</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.0096000935372915763</v>
+        <v>-0.010472829313409038</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0018388807340886659</v>
+        <v>-0.0020060517099148578</v>
       </c>
       <c r="E19" s="0">
-        <v>0.013420336660502297</v>
+        <v>0.014640367266002652</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.0140920323248514</v>
+        <v>-0.015373126172565144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.023350489706597366</v>
+        <v>0.025473261498106137</v>
       </c>
       <c r="B20" s="0">
-        <v>0.026489140333533945</v>
+        <v>0.02889724400021898</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.0013277282299019588</v>
+        <v>-0.0014484307962568388</v>
       </c>
       <c r="D20" s="0">
-        <v>0.054872949427510309</v>
+        <v>0.059861399375465862</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0032788601629180625</v>
+        <v>-0.0035769383595471438</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0078705878486660108</v>
+        <v>-0.0085860958349082139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.05249402532011227</v>
+        <v>0.057266209440122451</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.032582792451213538</v>
+        <v>-0.035544864492233041</v>
       </c>
       <c r="C21" s="0">
-        <v>0.10525964330312165</v>
+        <v>0.11482870178522342</v>
       </c>
       <c r="D21" s="0">
-        <v>0.058986381164108037</v>
+        <v>0.064348779451754268</v>
       </c>
       <c r="E21" s="0">
-        <v>0.02413287142978221</v>
+        <v>0.026326768832489633</v>
       </c>
       <c r="F21" s="0">
-        <v>0.041252113715881777</v>
+        <v>0.045002305871871096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.042505466738203157</v>
+        <v>0.046369600078039863</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0092676462694579742</v>
+        <v>-0.010110159566681431</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.010271201054715628</v>
+        <v>-0.011204946605144261</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.018030076256284444</v>
+        <v>-0.019669174097764974</v>
       </c>
       <c r="E22" s="0">
-        <v>0.02449061750303988</v>
+        <v>0.026717037276043354</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.006035538644234284</v>
+        <v>-0.0065842239755283805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0016383921879090102</v>
+        <v>-0.001787336932264294</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.00050018963062453681</v>
+        <v>-0.00054566141522671696</v>
       </c>
       <c r="C23" s="0">
-        <v>0.0065871690585649345</v>
+        <v>0.0071860026093435447</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.0021548662853010936</v>
+        <v>-0.0023507632203285111</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.025899980562451907</v>
+        <v>-0.028254524249947566</v>
       </c>
       <c r="F23" s="0">
-        <v>0.012819439369950891</v>
+        <v>0.013984842949037513</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0053042172607389859</v>
+        <v>-0.0057864188298971109</v>
       </c>
       <c r="B24" s="0">
-        <v>0.018346195938047039</v>
+        <v>0.020014031932414855</v>
       </c>
       <c r="C24" s="0">
-        <v>0.0038340618050761166</v>
+        <v>0.0041826128782651018</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0051911178913467415</v>
+        <v>0.0056630376996510412</v>
       </c>
       <c r="E24" s="0">
-        <v>0.057868565877719214</v>
+        <v>0.063129344593875647</v>
       </c>
       <c r="F24" s="0">
-        <v>0.027582698539983075</v>
+        <v>0.030090216589072349</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.016094939445764012</v>
+        <v>0.01755811575901528</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0034902915337697293</v>
+        <v>0.0038075907641126339</v>
       </c>
       <c r="C25" s="0">
-        <v>0.06125735654721165</v>
+        <v>0.066826207142412719</v>
       </c>
       <c r="D25" s="0">
-        <v>0.01777631668936025</v>
+        <v>0.019392345479302076</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.0048658476712306054</v>
+        <v>-0.005308197459524322</v>
       </c>
       <c r="F25" s="0">
-        <v>0.001563748336846138</v>
+        <v>0.0017059072765595595</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0037366968145002288</v>
+        <v>-0.0040763965249090983</v>
       </c>
       <c r="B26" s="0">
-        <v>0.031038536318039378</v>
+        <v>0.033860221437861215</v>
       </c>
       <c r="C26" s="0">
-        <v>0.011513923385193581</v>
+        <v>0.012560643692938578</v>
       </c>
       <c r="D26" s="0">
-        <v>0.017666535213119061</v>
+        <v>0.019272583868857163</v>
       </c>
       <c r="E26" s="0">
-        <v>0.016102690921531493</v>
+        <v>0.017566571914397922</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.022711318827047855</v>
+        <v>-0.024775984174961074</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.029181634254097921</v>
+        <v>0.031834510095379687</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0016236747262681761</v>
+        <v>0.0017712815195653486</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.015530370654594283</v>
+        <v>-0.016942222532284668</v>
       </c>
       <c r="D27" s="0">
-        <v>0.00069090829960394284</v>
+        <v>0.00075371814502239731</v>
       </c>
       <c r="E27" s="0">
-        <v>0.020375826535246833</v>
+        <v>0.022228174402087408</v>
       </c>
       <c r="F27" s="0">
-        <v>0.032651440260135889</v>
+        <v>0.035619753011057409</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0076145608538638054</v>
+        <v>0.0083067936587605251</v>
       </c>
       <c r="B28" s="0">
-        <v>0.015095565411133605</v>
+        <v>0.016467889539418468</v>
       </c>
       <c r="C28" s="0">
-        <v>0.033008919029450523</v>
+        <v>0.036009729850309646</v>
       </c>
       <c r="D28" s="0">
-        <v>0.019342465246968366</v>
+        <v>0.021100871178510949</v>
       </c>
       <c r="E28" s="0">
-        <v>0.00097336581508078446</v>
+        <v>0.001061853616451891</v>
       </c>
       <c r="F28" s="0">
-        <v>0.011601138039756875</v>
+        <v>0.012655786952462167</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.032884142723959675</v>
+        <v>0.035873610244319565</v>
       </c>
       <c r="B29" s="0">
-        <v>0.022129949666181647</v>
+        <v>0.024141763272198136</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.0078171468570019664</v>
+        <v>-0.0085277965712748927</v>
       </c>
       <c r="D29" s="0">
-        <v>0.015160717223578868</v>
+        <v>0.016538964243904331</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.013302543892605878</v>
+        <v>-0.014511866064661039</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.0016375070722897123</v>
+        <v>-0.0017863713515887669</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0095263353415526164</v>
+        <v>0.010392365827148475</v>
       </c>
       <c r="B30" s="0">
-        <v>0.025954972829972722</v>
+        <v>0.028314515814515884</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.042918284917077054</v>
+        <v>-0.046819947182265897</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.034490002424785005</v>
+        <v>-0.037625457190674727</v>
       </c>
       <c r="E30" s="0">
-        <v>0.040834195997239475</v>
+        <v>0.044546395633352109</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.021685689448847356</v>
+        <v>-0.023657115762378889</v>
       </c>
     </row>
   </sheetData>
